--- a/wars/smartPark-web/src/main/webapp/template/entinfo.xlsx
+++ b/wars/smartPark-web/src/main/webapp/template/entinfo.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14640" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="企业信息模板" sheetId="1" r:id="rId1"/>
@@ -212,27 +212,35 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -558,214 +566,229 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="1"/>
-    <col min="4" max="4" width="12" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="26.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="26.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="29.1640625" style="1" customWidth="1"/>
-    <col min="9" max="10" width="11.83203125" style="1" customWidth="1"/>
-    <col min="11" max="12" width="10.83203125" style="1"/>
-    <col min="13" max="13" width="39.5" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="14.125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="17" style="10" customWidth="1"/>
+    <col min="3" max="3" width="10.875" style="10"/>
+    <col min="4" max="4" width="12" style="10" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="10" customWidth="1"/>
+    <col min="6" max="6" width="26.375" style="10" customWidth="1"/>
+    <col min="7" max="7" width="26.5" style="10" customWidth="1"/>
+    <col min="8" max="8" width="29.125" style="10" customWidth="1"/>
+    <col min="9" max="10" width="11.875" style="10" customWidth="1"/>
+    <col min="11" max="12" width="10.875" style="10"/>
+    <col min="13" max="13" width="39.5" style="10" customWidth="1"/>
+    <col min="14" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="41" customHeight="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:13" s="2" customFormat="1" ht="41.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="6" t="s">
+    <row r="2" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+    </row>
+    <row r="3" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+    </row>
+    <row r="4" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+    </row>
+    <row r="5" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+    </row>
+    <row r="6" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+    </row>
+    <row r="7" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+    </row>
+    <row r="8" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+    </row>
+    <row r="9" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+    </row>
+    <row r="10" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+    </row>
+    <row r="11" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -782,118 +805,118 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="8" max="8" width="22.83203125" customWidth="1"/>
+    <col min="8" max="8" width="22.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="32" customHeight="1">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="7" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/wars/smartPark-web/src/main/webapp/template/entinfo.xlsx
+++ b/wars/smartPark-web/src/main/webapp/template/entinfo.xlsx
@@ -10,7 +10,7 @@
     <sheet name="企业信息模板" sheetId="1" r:id="rId1"/>
     <sheet name="企业员工信息" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -212,10 +212,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -568,222 +567,222 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="17" style="10" customWidth="1"/>
-    <col min="3" max="3" width="10.875" style="10"/>
-    <col min="4" max="4" width="12" style="10" customWidth="1"/>
-    <col min="5" max="5" width="12.5" style="10" customWidth="1"/>
-    <col min="6" max="6" width="26.375" style="10" customWidth="1"/>
-    <col min="7" max="7" width="26.5" style="10" customWidth="1"/>
-    <col min="8" max="8" width="29.125" style="10" customWidth="1"/>
-    <col min="9" max="10" width="11.875" style="10" customWidth="1"/>
-    <col min="11" max="12" width="10.875" style="10"/>
-    <col min="13" max="13" width="39.5" style="10" customWidth="1"/>
+    <col min="1" max="1" width="14.125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="17" style="9" customWidth="1"/>
+    <col min="3" max="3" width="10.875" style="9"/>
+    <col min="4" max="4" width="12" style="9" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="9" customWidth="1"/>
+    <col min="6" max="6" width="26.375" style="9" customWidth="1"/>
+    <col min="7" max="7" width="26.5" style="9" customWidth="1"/>
+    <col min="8" max="8" width="29.125" style="9" customWidth="1"/>
+    <col min="9" max="10" width="11.875" style="9" customWidth="1"/>
+    <col min="11" max="12" width="10.875" style="9"/>
+    <col min="13" max="13" width="39.5" style="9" customWidth="1"/>
     <col min="14" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" ht="41.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:13" s="5" customFormat="1" ht="41.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="9" t="s">
+    <row r="2" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-    </row>
-    <row r="3" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-    </row>
-    <row r="4" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-    </row>
-    <row r="5" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-    </row>
-    <row r="6" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-    </row>
-    <row r="7" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-    </row>
-    <row r="8" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-    </row>
-    <row r="9" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-    </row>
-    <row r="10" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-    </row>
-    <row r="11" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+    </row>
+    <row r="3" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+    </row>
+    <row r="4" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+    </row>
+    <row r="7" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -811,112 +810,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="5" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
